--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,36 @@
         <v>340</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>88</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-01-26 20:45:53</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
